--- a/biology/Zoologie/Garrulaxe_à_joues_blanches/Garrulaxe_à_joues_blanches.xlsx
+++ b/biology/Zoologie/Garrulaxe_à_joues_blanches/Garrulaxe_à_joues_blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_joues_blanches</t>
+          <t>Garrulaxe_à_joues_blanches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterorhinus chinensis
 Le Garrulaxe à joues blanches (Pterorhinus chinensis) est une espèce de passereau de la famille des Leiothrichidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_joues_blanches</t>
+          <t>Garrulaxe_à_joues_blanches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve à travers l'Indochine et régions proches du sud de la Chine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_joues_blanches</t>
+          <t>Garrulaxe_à_joues_blanches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les forêts tropicales et subtropicales humides de basses et hautes altitudes, et la végétation tropicales et subtropicales de broussailles. On le trouve aussi dans les prairies humides ou inondées périodiquement.
 </t>
